--- a/delay.xlsx
+++ b/delay.xlsx
@@ -487,7 +487,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -555,6 +555,12 @@
       <c r="B4">
         <v>21</v>
       </c>
+      <c r="D4">
+        <v>0.217</v>
+      </c>
+      <c r="E4">
+        <v>0.26800000000000002</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -647,6 +653,12 @@
       <c r="B11">
         <v>21</v>
       </c>
+      <c r="D11">
+        <v>0.127</v>
+      </c>
+      <c r="E11">
+        <v>0.26800000000000002</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -655,6 +667,12 @@
       <c r="B12">
         <v>21</v>
       </c>
+      <c r="D12">
+        <v>0.127</v>
+      </c>
+      <c r="E12">
+        <v>0.26800000000000002</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -663,6 +681,12 @@
       <c r="B13">
         <v>21</v>
       </c>
+      <c r="D13">
+        <v>0.127</v>
+      </c>
+      <c r="E13">
+        <v>0.26800000000000002</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -671,6 +695,12 @@
       <c r="B14">
         <v>21</v>
       </c>
+      <c r="D14">
+        <v>0.127</v>
+      </c>
+      <c r="E14">
+        <v>0.26800000000000002</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -679,6 +709,12 @@
       <c r="B15">
         <v>21</v>
       </c>
+      <c r="D15">
+        <v>0.127</v>
+      </c>
+      <c r="E15">
+        <v>0.26800000000000002</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -687,49 +723,79 @@
       <c r="B16">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>0.127</v>
+      </c>
+      <c r="E16">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>0.127</v>
+      </c>
+      <c r="E17">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E18">
+        <v>15.819000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>0.127</v>
+      </c>
+      <c r="E19">
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>0.127</v>
+      </c>
+      <c r="E20">
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>

--- a/delay.xlsx
+++ b/delay.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>Trojan type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,14 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AES delay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trojan delay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,6 +112,10 @@
   </si>
   <si>
     <t>AES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WNS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +123,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +138,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -161,18 +169,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -484,321 +502,445 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E20"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2">
-        <v>21</v>
+      <c r="B2" s="1">
+        <v>3.1339999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.126</v>
       </c>
       <c r="D2">
-        <v>0.126</v>
-      </c>
-      <c r="E2">
         <v>0.23499999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.1339999999999999</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4.016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>21</v>
+      <c r="B3" s="1">
+        <v>3.7490000000000001</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>0.128</v>
       </c>
       <c r="D3">
-        <v>0.128</v>
-      </c>
-      <c r="E3">
         <v>0.248</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3.7490000000000001</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3.5790000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
+        <v>3.5790000000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.217</v>
+      </c>
+      <c r="D4">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3.5790000000000002</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3.5790000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.4769999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.126</v>
+      </c>
+      <c r="D5">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3.4769999999999999</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3.5790000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.4159999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.126</v>
+      </c>
+      <c r="D6">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3.4159999999999999</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3.423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.423</v>
+      </c>
+      <c r="C7">
+        <v>0.127</v>
+      </c>
+      <c r="D7">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3.423</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3.423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3.423</v>
+      </c>
+      <c r="C8">
+        <v>0.127</v>
+      </c>
+      <c r="D8">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3.423</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3.423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3.2509999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.127</v>
+      </c>
+      <c r="D9">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3.2509999999999999</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3.762</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3.2509999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.127</v>
+      </c>
+      <c r="D10">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3.2509999999999999</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3.423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4.016</v>
+      </c>
+      <c r="C11">
+        <v>0.127</v>
+      </c>
+      <c r="D11">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.5790000000000002</v>
+      </c>
+      <c r="C12">
+        <v>0.127</v>
+      </c>
+      <c r="D12">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3.5790000000000002</v>
+      </c>
+      <c r="C13">
+        <v>0.127</v>
+      </c>
+      <c r="D13">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3.5790000000000002</v>
+      </c>
+      <c r="C14">
+        <v>0.127</v>
+      </c>
+      <c r="D14">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3.423</v>
+      </c>
+      <c r="C15">
+        <v>0.127</v>
+      </c>
+      <c r="D15">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3.423</v>
+      </c>
+      <c r="C16">
+        <v>0.127</v>
+      </c>
+      <c r="D16">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3.423</v>
+      </c>
+      <c r="C17">
+        <v>0.127</v>
+      </c>
+      <c r="D17">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D18">
+        <v>15.819000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3.762</v>
+      </c>
+      <c r="C19">
+        <v>0.127</v>
+      </c>
+      <c r="D19">
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3.423</v>
+      </c>
+      <c r="C20">
+        <v>0.127</v>
+      </c>
+      <c r="D20">
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="D4">
-        <v>0.217</v>
-      </c>
-      <c r="E4">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>0.126</v>
-      </c>
-      <c r="E5">
-        <v>0.23499999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>0.126</v>
-      </c>
-      <c r="E6">
-        <v>0.23400000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>0.127</v>
-      </c>
-      <c r="E7">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>0.127</v>
-      </c>
-      <c r="E8">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>21</v>
-      </c>
-      <c r="D9">
-        <v>0.127</v>
-      </c>
-      <c r="E9">
-        <v>0.27100000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>21</v>
-      </c>
-      <c r="D10">
-        <v>0.127</v>
-      </c>
-      <c r="E10">
-        <v>0.27100000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>0.127</v>
-      </c>
-      <c r="E11">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>21</v>
-      </c>
-      <c r="D12">
-        <v>0.127</v>
-      </c>
-      <c r="E12">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>21</v>
-      </c>
-      <c r="D13">
-        <v>0.127</v>
-      </c>
-      <c r="E13">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>21</v>
-      </c>
-      <c r="D14">
-        <v>0.127</v>
-      </c>
-      <c r="E14">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>21</v>
-      </c>
-      <c r="D15">
-        <v>0.127</v>
-      </c>
-      <c r="E15">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>21</v>
-      </c>
-      <c r="D16">
-        <v>0.127</v>
-      </c>
-      <c r="E16">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>21</v>
-      </c>
-      <c r="D17">
-        <v>0.127</v>
-      </c>
-      <c r="E17">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>21</v>
-      </c>
-      <c r="D18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E18">
-        <v>15.819000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19">
-        <v>0.127</v>
-      </c>
-      <c r="E19">
-        <v>0.26700000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>0.127</v>
-      </c>
-      <c r="E20">
-        <v>0.26700000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
+      <c r="B24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
